--- a/DeliveryApp_TestPlan.xlsx
+++ b/DeliveryApp_TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\eSIGELEC_wOrk\javaWork\ESIGELEC_JAVAProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1FA1D-00A5-400E-8056-29C3A8EBD0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775A927-C527-47DE-B901-D2882F3B6E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="driver" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="350">
   <si>
     <t>ID</t>
   </si>
@@ -334,9 +334,6 @@
     <t xml:space="preserve"> Redirected to customer dashboard </t>
   </si>
   <si>
-    <t xml:space="preserve"> Pass </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Register_002 </t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t xml:space="preserve"> "Invalid truck capacity" error </t>
   </si>
   <si>
-    <t xml:space="preserve">  Fail</t>
-  </si>
-  <si>
     <t>Registration successful</t>
   </si>
   <si>
@@ -704,9 +698,6 @@
   </si>
   <si>
     <t>Modify successful</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>user modify info</t>
@@ -1321,7 +1312,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1395,13 +1386,22 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
@@ -1415,18 +1415,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2112,7 +2100,7 @@
   <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J10" sqref="J10:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2156,25 +2144,25 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="30">
         <v>45638</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="9" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
@@ -2210,194 +2198,182 @@
     </row>
     <row r="10" spans="2:11" ht="155" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="H10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>323</v>
+      <c r="G11" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="I11" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>325</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>328</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>329</v>
+      <c r="G12" s="25" t="s">
+        <v>326</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="I12" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>334</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>335</v>
+      <c r="G13" s="25" t="s">
+        <v>332</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="I13" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="G14" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="I14" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>85</v>
-      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="F15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="I15" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2407,34 +2383,34 @@
     <row r="20" spans="2:2" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:2" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34"/>
+      <c r="B31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2453,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C541EE59-E0FA-4A35-926F-1ACDFC31C82E}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2498,25 +2474,25 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="30">
         <v>45638</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="9" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
@@ -2552,194 +2528,194 @@
     </row>
     <row r="10" spans="2:11" ht="155" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="H10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>85</v>
+      <c r="J10" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="G11" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="H11" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="I11" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>85</v>
+      <c r="J11" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="H12" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="I12" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>85</v>
+      <c r="J12" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="H13" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="I13" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>85</v>
+      <c r="J13" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="I14" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>85</v>
+      <c r="J14" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>85</v>
+      <c r="J15" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2749,34 +2725,34 @@
     <row r="20" spans="2:2" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:2" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="2:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34"/>
+      <c r="B31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2795,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778EB675-3249-43C9-AD4F-B9B8AAA02286}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2840,25 +2816,25 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="30">
         <v>45638</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="9" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
@@ -2894,258 +2870,258 @@
     </row>
     <row r="10" spans="2:11" ht="155" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="F10" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="G10" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="H10" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="I10" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>85</v>
+      <c r="J10" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="F11" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="G11" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="H11" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="I11" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>85</v>
+      <c r="J11" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="G12" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="H12" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="I12" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>85</v>
+      <c r="J12" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="G13" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>239</v>
-      </c>
       <c r="H13" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>85</v>
+        <v>230</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="G14" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>85</v>
+      <c r="I14" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="H15" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="I15" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>85</v>
+      <c r="J15" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="F16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="I16" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>85</v>
+      <c r="J16" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="G17" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="H17" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="I17" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="J17" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3153,34 +3129,34 @@
     <row r="20" spans="2:11" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:11" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34"/>
+      <c r="B31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3199,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180885B9-EACB-4718-8BD2-43050474C6AC}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3244,25 +3220,25 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="30">
         <v>45638</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="9" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
@@ -3298,372 +3274,350 @@
     </row>
     <row r="10" spans="2:11" ht="155" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="F10" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="G10" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="H10" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="G11" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>159</v>
-      </c>
       <c r="H11" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>85</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="G12" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>163</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>85</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="H13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>85</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="G14" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>136</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J15" s="25"/>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J16" s="25"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="G17" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="H17" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J17" s="25"/>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="2:11" ht="62" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="G19" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J19" s="25"/>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="2:11" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="25"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="2:11" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34"/>
+      <c r="B31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3682,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9188706D-5C48-4D1A-9D4D-933FEF1D215B}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:K19"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3727,25 +3681,25 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="30">
         <v>45638</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="9" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
@@ -3783,341 +3737,321 @@
       <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="I10" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="H11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="I11" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="H12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="H13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="I13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="35" t="s">
+      <c r="I14" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="35" t="s">
+      <c r="I15" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J15" s="25"/>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="35" t="s">
+      <c r="I16" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J16" s="25"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="33" t="s">
+      <c r="I17" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J17" s="25"/>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="33" t="s">
+      <c r="I18" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="2:11" ht="62" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="33" t="s">
+      <c r="I19" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="J19" s="25"/>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="2:11" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:11" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34"/>
+      <c r="B31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4137,8 +4071,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4181,25 +4115,25 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="30">
         <v>45638</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="9" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
@@ -4237,16 +4171,16 @@
       <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -4258,17 +4192,14 @@
       <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="13" t="str">
-        <f>IF(OR(G10=I10,I10="As expected"),"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:11" ht="108.5" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -4280,7 +4211,7 @@
       <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="25" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -4289,10 +4220,7 @@
       <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="13" t="str">
-        <f t="shared" ref="J11:J23" si="0">IF(OR(G11=I11,I11="As expected"),"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
+      <c r="J11" s="13"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" ht="108.5" x14ac:dyDescent="0.35">
@@ -4311,7 +4239,7 @@
       <c r="F12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -4320,10 +4248,7 @@
       <c r="I12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="108.5" x14ac:dyDescent="0.35">
@@ -4342,7 +4267,7 @@
       <c r="F13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -4351,10 +4276,7 @@
       <c r="I13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J13" s="13"/>
       <c r="K13" s="8" t="s">
         <v>71</v>
       </c>
@@ -4375,7 +4297,7 @@
       <c r="F14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="25" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -4384,10 +4306,7 @@
       <c r="I14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J14" s="13"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" ht="108.5" x14ac:dyDescent="0.35">
@@ -4415,10 +4334,7 @@
       <c r="I15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J15" s="13"/>
       <c r="K15" s="8" t="s">
         <v>71</v>
       </c>
@@ -4448,10 +4364,7 @@
       <c r="I16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J16" s="13"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:12" ht="108.5" x14ac:dyDescent="0.35">
@@ -4479,10 +4392,7 @@
       <c r="I17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J17" s="13"/>
       <c r="K17" s="8" t="s">
         <v>71</v>
       </c>
@@ -4512,10 +4422,7 @@
       <c r="I18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
+      <c r="J18" s="13"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="2:12" ht="108.5" x14ac:dyDescent="0.35">
@@ -4543,10 +4450,7 @@
       <c r="I19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
+      <c r="J19" s="13"/>
       <c r="K19" s="8" t="s">
         <v>71</v>
       </c>
@@ -4576,10 +4480,7 @@
       <c r="I20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
+      <c r="J20" s="13"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="2:12" ht="139.5" x14ac:dyDescent="0.35">
@@ -4607,10 +4508,7 @@
       <c r="I21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
+      <c r="J21" s="13"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="2:12" ht="108.5" x14ac:dyDescent="0.35">
@@ -4638,10 +4536,7 @@
       <c r="I22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J22" s="13"/>
       <c r="K22" s="8" t="s">
         <v>71</v>
       </c>
@@ -4671,10 +4566,7 @@
       <c r="I23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
+      <c r="J23" s="13"/>
       <c r="K23" s="8"/>
     </row>
     <row r="26" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -4716,7 +4608,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4740,18 +4632,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -4761,19 +4653,19 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
       <c r="E7" s="24"/>
